--- a/meta/en/4-1-1.xlsx
+++ b/meta/en/4-1-1.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -99,35 +98,6 @@
   </si>
   <si>
     <t>4.1. By 2030, ensure that all girls and boys complete free, equitable and quality primary and secondary education leading to relevant and effective learning outcomes</t>
-  </si>
-  <si>
-    <t>4.1.1 Proportion of children and young people: 
-(a) in grades 2/3; 
-(b) at the end of primary; and 
-(c) at the end of lower secondary achieving at least a minimum proficiency level in (i) reading and 
-(ii) mathematics, by sex)</t>
-  </si>
-  <si>
-    <t>1)National Statistical Committee of the Kyrgyz Republic (Sustainable Development and Environment Statistics Department)
-2) Ministry of Education and Science of the Kyrgyz Republic
-(National Center for Educational and Information Technology Quality Evaluation)</t>
-  </si>
-  <si>
-    <t>1) Kerimalieva Nazira Kerimalievna 
-2) Shamshidinova Baktygul Sabyrzhanovna</t>
-  </si>
-  <si>
-    <t>1) Sdg_nsc@stat.kg 
-2) bakula68@mail.ru</t>
-  </si>
-  <si>
-    <t>1) +996312 32 46 91
-2) +996312622962</t>
-  </si>
-  <si>
-    <t>1) www.stat.kg
-2) http://ntc.kg/;  
-http://testing.kg</t>
   </si>
   <si>
     <t>1) Percentage of children and young people at the end of primary education and the end of lower secondary education achieving at least a minimum proficiency level in (a) reading and (b) mathematics.
@@ -186,17 +156,50 @@
 United Nations Educational, Scientific and Cultural Organization. UNESCO Institute for statistics 2018.
 The National Assessment of Student Educational Achievements (NASEA). Study Report. Bishkek (2008, 2010, 2014, 2018)Website: http://testing.kg</t>
   </si>
+  <si>
+    <t>4.1.1 Proportion of children and young people (a) in grades 2/3; (b) at the end of primary; and (c) at the end of lower secondary achieving at least a minimum proficiency level in (i) reading and (ii) mathematics, by sex</t>
+  </si>
+  <si>
+    <t>1)National Statistical Committee of the Kyrgyz Republic (Department of Household Statistics)
+2) Ministry of Education and Science of the Kyrgyz Republic
+(National Center for Educational and Information Technology Quality Evaluation)</t>
+  </si>
+  <si>
+    <t>1) Kalymbetova Yryskan
+2) Shamshidinova Baktygul Sabyrzhanovna</t>
+  </si>
+  <si>
+    <t>1)yryskan.kalymbetova@gmail.com 
+2) bakula68@mail.ru</t>
+  </si>
+  <si>
+    <t>1)(0312) 32 46 55
+2) +996312622962</t>
+  </si>
+  <si>
+    <t>1) www.stat.gov.kg
+2) http://ntc.kg/;  
+http://testing.kg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -271,25 +274,29 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -605,7 +612,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,7 +649,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -655,40 +662,40 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>29</v>
+      <c r="B6" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>30</v>
+      <c r="B7" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>31</v>
+      <c r="B8" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>32</v>
+      <c r="B9" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>33</v>
+      <c r="B10" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -702,7 +709,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="229.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -710,7 +717,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -718,7 +725,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -732,7 +739,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -740,7 +747,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -754,7 +761,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -762,7 +769,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -782,7 +789,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -790,7 +797,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -798,7 +805,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -806,7 +813,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
